--- a/biology/Botanique/Olivera_De_Cort/Olivera_De_Cort.xlsx
+++ b/biology/Botanique/Olivera_De_Cort/Olivera_De_Cort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Olivera De Cort est un olivier protégé comme arbre remarquable et qui se situe sur la "Plaça de Cort (ca)" à Palma de Majorque.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet olivier (Olea europaea) est vieux de plus de 800 ans[1].
-Il mesure environ sept mètres de hauteur et la circonférence du tronc atteint 7,21 m à 1,30 m de la base[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet olivier (Olea europaea) est vieux de plus de 800 ans.
+Il mesure environ sept mètres de hauteur et la circonférence du tronc atteint 7,21 m à 1,30 m de la base.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet Olivier a été déplacé de Pollença à Majorque jusqu'à Palma en 1989[3].
-En 2003, il a été référencé et protégé par la loi 6/1991 de Protection d'arbres remarquables[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet Olivier a été déplacé de Pollença à Majorque jusqu'à Palma en 1989.
+En 2003, il a été référencé et protégé par la loi 6/1991 de Protection d'arbres remarquables.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il symbolise localement la paix et l'attachement à la terre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il symbolise localement la paix et l'attachement à la terre.
 </t>
         </is>
       </c>
